--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value637.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value637.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.214961622609134</v>
+        <v>1.191709995269775</v>
       </c>
       <c r="B1">
-        <v>2.274471891373813</v>
+        <v>2.372738122940063</v>
       </c>
       <c r="C1">
-        <v>3.333892689782815</v>
+        <v>4.246733665466309</v>
       </c>
       <c r="D1">
-        <v>3.440587210192441</v>
+        <v>2.87806224822998</v>
       </c>
       <c r="E1">
-        <v>1.122251769602801</v>
+        <v>1.120337724685669</v>
       </c>
     </row>
   </sheetData>
